--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975EFB4-D27A-44B6-A5D2-0CC973307A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38899D2F-9856-4D4C-B532-7871C4EA1638}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,42 +51,6 @@
   </si>
   <si>
     <t>值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D.道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyeqpid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.兵种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵装建造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,58 +419,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38899D2F-9856-4D4C-B532-7871C4EA1638}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77855BEA-1433-4B41-8DFB-73CB0667A3D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,46 @@
   </si>
   <si>
     <t>值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -419,6 +459,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77855BEA-1433-4B41-8DFB-73CB0667A3D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2A8814-D153-4498-8D74-E1059C83DF4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,30 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff.状态效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -505,9 +529,61 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2A8814-D153-4498-8D74-E1059C83DF4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE94333-83F2-4DA8-A36B-5B1A200CB9EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE94333-83F2-4DA8-A36B-5B1A200CB9EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142B785-7EF0-48A5-B2DC-214148382B80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,15 +106,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff.状态效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配数值技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -566,10 +566,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142B785-7EF0-48A5-B2DC-214148382B80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC17AA3-AB56-40B2-B7FC-7C5703E12F0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>配数值技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achv.成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,6 +599,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC17AA3-AB56-40B2-B7FC-7C5703E12F0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B0A7B7-0381-4761-8C7F-D3F862AC323F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,26 @@
   </si>
   <si>
     <t>成就Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop.掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -622,6 +642,32 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B0A7B7-0381-4761-8C7F-D3F862AC323F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C482B-EE9C-4467-A0DA-DACB8F16CBDF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,15 +138,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掉落组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>groupId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -653,16 +653,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
       <c r="G7">
         <v>4</v>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C482B-EE9C-4467-A0DA-DACB8F16CBDF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D892196-0448-45C7-BAA6-18C8BE7CC01D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配数值技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>achieve_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>dropGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -575,7 +575,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -647,22 +647,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
       <c r="G7">
         <v>4</v>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D892196-0448-45C7-BAA6-18C8BE7CC01D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A9EBA-4913-4F1C-98F1-1A8BBB9CD4BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,29 @@
   </si>
   <si>
     <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster.怪物</t>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调数值波次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monwave_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,6 +694,58 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A9EBA-4913-4F1C-98F1-1A8BBB9CD4BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369FE6C-98DC-4A2F-BEC7-9A5BFBB8C330}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,29 +147,6 @@
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster.怪物</t>
-  </si>
-  <si>
-    <t>怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调数值波次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monwave_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,58 +671,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToLua/Index/INDEX.xlsx
+++ b/ExcelToLua/Index/INDEX.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369FE6C-98DC-4A2F-BEC7-9A5BFBB8C330}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,26 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr.属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,74 +65,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff.状态效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achv.成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop.掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dropGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,16 +447,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -538,137 +465,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
